--- a/migration_log.xlsx
+++ b/migration_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,201 @@
       </c>
       <c r="I2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>WilliamPagerSA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-09-20 14:16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2024-09-20 14:31</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0:14:19.941698</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>WilliamPagerSA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>db</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>restore</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-09-20 14:44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2024-09-20 14:44</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0:00:07.211794</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>WilliamPagerSA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-09-20 14:45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2024-09-20 15:15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0:29:37.129975</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>WilliamPagerSA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>db</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>restore</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-09-20 15:36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2024-09-20 15:36</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0:00:06.877109</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>WilliamPagerSA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>db</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>restore</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-09-20 15:52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2024-09-20 15:52</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0:00:06.238449</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/migration_log.xlsx
+++ b/migration_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,6 +714,240 @@
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>WilliamPagerSA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-09-20 15:53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2024-09-23 09:01</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2 days, 17:08:32.072800</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>WilliamPagerSA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>db</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>restore</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-09-23 10:03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2024-09-23 10:03</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0:00:33.213483</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>WilliamPagerSA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-09-23 10:03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2024-09-23 13:11</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3:07:55.272992</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>WilliamPagerSA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>db</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>restore</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-09-23 14:46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2024-09-23 14:46</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0:00:09.440118</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>WilliamPagerSA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>db</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>restore</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-09-23 14:49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2024-09-23 14:49</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0:00:05.413255</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>WilliamPagerSA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>db</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>restore</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-09-23 14:54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2024-09-23 14:54</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0:00:06.070089</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/migration_log.xlsx
+++ b/migration_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -948,6 +948,314 @@
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>WilliamPagerSA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>db</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>restore</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-09-23 16:02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2024-09-23 16:02</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0:00:06.834394</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>WilliamPagerSA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>db</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>restore</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024-09-23 16:40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2024-09-23 16:40</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0:00:05.744883</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>WilliamPagerSA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>db</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>restore</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-09-23 16:42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2024-09-23 16:42</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0:00:02.429912</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>WilliamPagerSA</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024-09-23 16:44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2024-09-24 08:28</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>15:43:44.958456</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>WilliamPagerSA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>db</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>restore</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024-09-24 10:51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2024-09-24 10:51</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0:00:05.653895</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>WilliamPagerSA</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>db</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>restore</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024-09-24 12:56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2024-09-24 12:56</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0:00:06.183989</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>WilliamPagerSA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024-09-24 12:56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2024-09-24 13:48</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0:51:40.608733</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>migrate</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>encrypt</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024-09-24 14:01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2024-09-24 14:03</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0:02:04.803779</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
